--- a/Paralelismo/equacao_testes.xlsx
+++ b/Paralelismo/equacao_testes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duart\Desktop\Universidade\MasterDegree\MD_docx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB1F889-6E6F-43C1-A99E-E6C7608B0E90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A403C7A9-DFF3-479C-966E-6103C77FB791}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>FM_size</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Número DSP disponiveis</t>
   </si>
   <si>
-    <t>Número de filtros</t>
-  </si>
-  <si>
     <t>Número de linhas</t>
   </si>
   <si>
@@ -131,21 +128,46 @@
   <si>
     <t>APENAS MUDAR CÉLULAS A AZUL</t>
   </si>
+  <si>
+    <t>Número de filtros em paralelo</t>
+  </si>
+  <si>
+    <t>Número BRAMS disponiveis</t>
+  </si>
+  <si>
+    <t>Memória por cada BRAM(bits)</t>
+  </si>
+  <si>
+    <t>Memória total</t>
+  </si>
+  <si>
+    <t>Memória por cada filtro</t>
+  </si>
+  <si>
+    <t>Out size</t>
+  </si>
+  <si>
+    <t>Númeo de filtros em paralelo</t>
+  </si>
+  <si>
+    <t>Número de filtros</t>
+  </si>
+  <si>
+    <t>Memória total filtros</t>
+  </si>
+  <si>
+    <t>Número iterações</t>
+  </si>
+  <si>
+    <t>Numéro de filtros(ultima iteração)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -223,23 +245,23 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent3" xfId="4" builtinId="38"/>
@@ -1863,16 +1885,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1543050</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1502470</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>78361</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>457360</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>78361</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7659,40 +7681,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633A9424-78BA-47E8-92F7-E92686F9E2B7}">
-  <dimension ref="A1:V125"/>
+  <dimension ref="A1:X125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="8" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" customWidth="1"/>
     <col min="5" max="5" width="4.7109375" customWidth="1"/>
     <col min="6" max="6" width="3.42578125" customWidth="1"/>
     <col min="7" max="7" width="6.140625" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="25" customWidth="1"/>
-    <col min="14" max="14" width="5.42578125" customWidth="1"/>
-    <col min="15" max="15" width="3.5703125" customWidth="1"/>
-    <col min="16" max="16" width="3.140625" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="27.28515625" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" customWidth="1"/>
+    <col min="16" max="16" width="24.5703125" customWidth="1"/>
     <col min="17" max="17" width="58.7109375" customWidth="1"/>
+    <col min="23" max="23" width="34.42578125" customWidth="1"/>
+    <col min="24" max="24" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D1" t="s">
@@ -7701,20 +7725,20 @@
       <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q1" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7722,7 +7746,7 @@
         <f>ROUNDDOWN((($R$4+A2-1)/A2),0)+$U$10</f>
         <v>254</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <f>IF($R$13&lt;$R$10,IF(OR(AND(ISODD($R$10),ISODD(B2)),AND(ISEVEN($R$10),ISEVEN(B2))),B2,B2+1),IF(MOD(B2,$R$10)&gt;0,B2+($R$10-MOD(B2,$R$10)),B2))</f>
         <v>255</v>
       </c>
@@ -7734,20 +7758,20 @@
         <f>$R$4-(D2-1)*(C2-$U$10)</f>
         <v>252</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <f t="shared" ref="J2:J65" si="0">IF(H2&lt;$R$10,D2-1,D2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="2">
         <f>$R$4-(J2-1)*(C2-$U$10)</f>
         <v>252</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="3">
         <f>($R$4/J2)*$R$4</f>
         <v>63504</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7755,7 +7779,7 @@
         <f t="shared" ref="B3:B66" si="1">ROUNDDOWN((($R$4+A3-1)/A3),0)+$U$10</f>
         <v>128</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <f t="shared" ref="C3:C66" si="2">IF($R$13&lt;$R$10,IF(OR(AND(ISODD($R$10),ISODD(B3)),AND(ISEVEN($R$10),ISEVEN(B3))),B3,B3+1),IF(MOD(B3,$R$10)&gt;0,B3+($R$10-MOD(B3,$R$10)),B3))</f>
         <v>129</v>
       </c>
@@ -7767,20 +7791,26 @@
         <f t="shared" ref="H3:H66" si="4">$R$4-(D3-1)*(C3-$U$10)</f>
         <v>125</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <f t="shared" ref="K3:K21" si="5">$R$4-(J3-1)*(C3-$U$10)</f>
         <v>125</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <f t="shared" ref="L3:L66" si="6">($R$4/J3)*$R$4</f>
         <v>31752</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X3" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7788,7 +7818,7 @@
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
@@ -7800,26 +7830,28 @@
         <f t="shared" si="4"/>
         <v>82</v>
       </c>
-      <c r="J4" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K4" s="3">
+      <c r="J4" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K4" s="2">
         <f t="shared" si="5"/>
         <v>82</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <f t="shared" si="6"/>
         <v>21168</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4" s="6">
         <v>252</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7827,7 +7859,7 @@
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
@@ -7839,22 +7871,24 @@
         <f t="shared" si="4"/>
         <v>63</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <f t="shared" si="6"/>
         <v>15876</v>
       </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7862,7 +7896,7 @@
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
@@ -7874,22 +7908,28 @@
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="J6" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K6" s="3">
+      <c r="J6" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K6" s="2">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <f t="shared" si="6"/>
         <v>12700.8</v>
       </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="W6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X6" s="6">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7897,7 +7937,7 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
@@ -7909,22 +7949,24 @@
         <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <f t="shared" si="5"/>
         <v>37</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <f t="shared" si="6"/>
         <v>10584</v>
       </c>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7932,7 +7974,7 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
@@ -7944,22 +7986,24 @@
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="J8" s="3">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="J8" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K8" s="2">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="3">
         <f t="shared" si="6"/>
         <v>9072</v>
       </c>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7967,7 +8011,7 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
@@ -7979,22 +8023,29 @@
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <f t="shared" si="6"/>
         <v>7938</v>
       </c>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="W9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X9" s="6">
+        <f>X3*X6</f>
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8002,7 +8053,7 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
@@ -8014,33 +8065,35 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <f t="shared" si="6"/>
         <v>7056</v>
       </c>
-      <c r="Q10" s="7" t="s">
+      <c r="Q10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="R10" s="7">
-        <v>3</v>
-      </c>
-      <c r="T10" s="9" t="s">
+      <c r="R10" s="6">
+        <v>3</v>
+      </c>
+      <c r="T10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="U10" s="9">
+      <c r="U10" s="8">
         <f>R10-R13</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8048,7 +8101,7 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
@@ -8060,25 +8113,27 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="3">
         <f t="shared" si="6"/>
         <v>6350.4</v>
       </c>
       <c r="N11" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8086,7 +8141,7 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -8098,22 +8153,29 @@
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="2">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <f t="shared" si="6"/>
         <v>5773.090909090909</v>
       </c>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="W12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="X12" s="6">
+        <f>R29*R29*48</f>
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8121,7 +8183,7 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
@@ -8133,26 +8195,28 @@
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="2">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <f t="shared" si="6"/>
         <v>5292</v>
       </c>
-      <c r="Q13" s="7" t="s">
+      <c r="Q13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="R13" s="7">
+      <c r="R13" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8160,7 +8224,7 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
@@ -8172,22 +8236,24 @@
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="2">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="3">
         <f t="shared" si="6"/>
         <v>5292</v>
       </c>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8195,7 +8261,7 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
@@ -8207,33 +8273,39 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="3">
         <f t="shared" si="6"/>
         <v>4536</v>
       </c>
-      <c r="Q15" s="7" t="s">
+      <c r="Q15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="R15" s="7">
-        <v>100</v>
-      </c>
-      <c r="U15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="V15" s="9">
+      <c r="R15" s="6">
+        <v>9</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="V15" s="8">
         <f>ROUNDDOWN((($R$4+$R$19-1)/$R$19),0)+$U$10</f>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="W15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="X15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8241,7 +8313,7 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
@@ -8253,24 +8325,26 @@
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="2">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="3">
         <f t="shared" si="6"/>
         <v>4233.6000000000004</v>
       </c>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8278,7 +8352,7 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
@@ -8290,28 +8364,31 @@
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="2">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="3">
         <f t="shared" si="6"/>
         <v>4233.6000000000004</v>
       </c>
-      <c r="Q17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R17" s="7">
-        <v>2</v>
-      </c>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R17" s="6">
+        <f>X18</f>
+        <v>1</v>
+      </c>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8319,7 +8396,7 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
@@ -8331,24 +8408,31 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="2">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="3">
         <f t="shared" si="6"/>
         <v>3735.5294117647059</v>
       </c>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="X18" s="4">
+        <f>ROUND(X9/X12,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8356,7 +8440,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
@@ -8368,34 +8452,36 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="2">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="3">
         <f t="shared" si="6"/>
         <v>3735.5294117647059</v>
       </c>
-      <c r="Q19" s="5" t="s">
+      <c r="Q19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R19" s="5">
+        <f>ROUNDDOWN((($R$15/($R$10*$R$10))/$R$17),0)</f>
+        <v>1</v>
+      </c>
+      <c r="U19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="R19" s="6">
-        <f>ROUNDDOWN((($R$15/($R$10*$R$10))/$R$17),0)</f>
-        <v>5</v>
-      </c>
-      <c r="U19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="V19" s="9">
+      <c r="V19" s="8">
         <f>_xlfn.CEILING.MATH(($R$4/($R$23-$U$10)))</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8403,7 +8489,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
@@ -8415,24 +8501,26 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="2">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="3">
         <f t="shared" si="6"/>
         <v>3735.5294117647059</v>
       </c>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8440,7 +8528,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -8452,29 +8540,31 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="2">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="3">
         <f t="shared" si="6"/>
         <v>3175.2</v>
       </c>
-      <c r="Q21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="R21" s="5">
+      <c r="Q21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R21" s="4">
         <f>IF($V$23&lt;$R$10,$V$19-1,$V$19)</f>
-        <v>5</v>
-      </c>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8482,7 +8572,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -8494,24 +8584,26 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="2">
         <f t="shared" ref="K22:K66" si="7">$R$4-(J22-1)*(B22-$U$10)</f>
         <v>24</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="3">
         <f t="shared" si="6"/>
         <v>3175.2</v>
       </c>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -8519,7 +8611,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -8531,34 +8623,41 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="2">
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="3">
         <f t="shared" si="6"/>
         <v>3175.2</v>
       </c>
-      <c r="Q23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="R23" s="5">
+      <c r="Q23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R23" s="4">
         <f>IF($R$13&lt;$R$10,IF(OR(AND(ISODD($R$10),ISODD($V$15)),AND(ISEVEN($R$10),ISEVEN($V$15))),$V$15,$V$15+1),IF(MOD($V$15,$R$10)&gt;0,$V$15+($R$10-MOD($V$15,$R$10)),$V$15))</f>
-        <v>53</v>
-      </c>
-      <c r="U23" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="V23" s="9">
+        <v>255</v>
+      </c>
+      <c r="U23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="V23" s="8">
         <f>$R$4-($V$19-1)*($R$23-$U$10)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="W23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="X23" s="4">
+        <f>X15*X12</f>
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8566,7 +8665,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -8578,22 +8677,24 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="2">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="3">
         <f t="shared" si="6"/>
         <v>2761.04347826087</v>
       </c>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -8601,7 +8702,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -8613,27 +8714,29 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="2">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="3">
         <f t="shared" si="6"/>
         <v>2761.04347826087</v>
       </c>
-      <c r="Q25" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="R25" s="5">
+      <c r="Q25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R25" s="4">
         <f>$R$4-($R$21-1)*($R$23-$U$10)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8641,7 +8744,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -8653,22 +8756,29 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="2">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="3">
         <f t="shared" si="6"/>
         <v>2761.04347826087</v>
       </c>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="W26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X26" s="4">
+        <f>_xlfn.CEILING.MATH(X15/X18)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -8676,7 +8786,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -8688,27 +8798,29 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="2">
         <f t="shared" si="7"/>
         <v>32</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="3">
         <f t="shared" si="6"/>
         <v>2761.04347826087</v>
       </c>
-      <c r="Q27" s="5" t="s">
+      <c r="Q27" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="R27" s="6">
+      <c r="R27" s="5">
         <f>($R$4/$R$21)*$R$4</f>
-        <v>12700.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+        <v>63504</v>
+      </c>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -8716,7 +8828,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="8">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -8728,20 +8840,24 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="2">
         <f>IF(H28&lt;$R$10,D28-1,D28)</f>
         <v>23</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="2">
         <f t="shared" si="7"/>
         <v>32</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="3">
         <f t="shared" si="6"/>
         <v>2761.04347826087</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -8749,7 +8865,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="8">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
@@ -8761,20 +8877,34 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="2">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29" s="3">
         <f t="shared" si="6"/>
         <v>2268</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R29" s="4">
+        <f>((R4-R10)/R13) + 1</f>
+        <v>250</v>
+      </c>
+      <c r="W29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="X29" s="4">
+        <f>X15-(X26-1)*X18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -8782,7 +8912,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="8">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
@@ -8794,20 +8924,20 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="2">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="3">
         <f t="shared" si="6"/>
         <v>2268</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -8815,7 +8945,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="8">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
@@ -8827,20 +8957,20 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="2">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L31" s="3">
         <f t="shared" si="6"/>
         <v>2268</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -8848,7 +8978,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="8">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
@@ -8860,15 +8990,15 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="2">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L32" s="3">
         <f t="shared" si="6"/>
         <v>2268</v>
       </c>
@@ -8881,7 +9011,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="8">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
@@ -8893,15 +9023,15 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="2">
         <f t="shared" si="7"/>
         <v>36</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L33" s="3">
         <f t="shared" si="6"/>
         <v>2268</v>
       </c>
@@ -8914,7 +9044,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="8">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
@@ -8926,15 +9056,15 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="2">
         <f t="shared" si="7"/>
         <v>36</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L34" s="3">
         <f t="shared" si="6"/>
         <v>2268</v>
       </c>
@@ -8947,7 +9077,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="8">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
@@ -8959,15 +9089,15 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="2">
         <f t="shared" si="7"/>
         <v>36</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L35" s="3">
         <f t="shared" si="6"/>
         <v>2268</v>
       </c>
@@ -8980,7 +9110,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="8">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
@@ -8992,15 +9122,15 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="2">
         <f t="shared" si="7"/>
         <v>36</v>
       </c>
-      <c r="L36" s="4">
+      <c r="L36" s="3">
         <f t="shared" si="6"/>
         <v>2268</v>
       </c>
@@ -9013,7 +9143,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="8">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -9025,15 +9155,15 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="2">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="L37" s="4">
+      <c r="L37" s="3">
         <f t="shared" si="6"/>
         <v>1764</v>
       </c>
@@ -9046,7 +9176,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="8">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -9058,15 +9188,15 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="2">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="L38" s="4">
+      <c r="L38" s="3">
         <f t="shared" si="6"/>
         <v>1764</v>
       </c>
@@ -9079,7 +9209,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="8">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -9091,15 +9221,15 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39" s="2">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="L39" s="4">
+      <c r="L39" s="3">
         <f t="shared" si="6"/>
         <v>1764</v>
       </c>
@@ -9112,7 +9242,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="8">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -9124,15 +9254,15 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40" s="2">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="L40" s="4">
+      <c r="L40" s="3">
         <f t="shared" si="6"/>
         <v>1764</v>
       </c>
@@ -9145,7 +9275,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="8">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -9157,15 +9287,15 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="2">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="L41" s="4">
+      <c r="L41" s="3">
         <f t="shared" si="6"/>
         <v>1764</v>
       </c>
@@ -9178,7 +9308,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="8">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -9190,15 +9320,15 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="2">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="L42" s="4">
+      <c r="L42" s="3">
         <f t="shared" si="6"/>
         <v>1764</v>
       </c>
@@ -9211,7 +9341,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="8">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -9223,15 +9353,15 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="2">
         <f t="shared" si="7"/>
         <v>42</v>
       </c>
-      <c r="L43" s="4">
+      <c r="L43" s="3">
         <f t="shared" si="6"/>
         <v>1764</v>
       </c>
@@ -9244,7 +9374,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="8">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -9256,15 +9386,15 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="2">
         <f t="shared" si="7"/>
         <v>42</v>
       </c>
-      <c r="L44" s="4">
+      <c r="L44" s="3">
         <f t="shared" si="6"/>
         <v>1764</v>
       </c>
@@ -9277,7 +9407,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="8">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -9289,15 +9419,15 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="2">
         <f t="shared" si="7"/>
         <v>42</v>
       </c>
-      <c r="L45" s="4">
+      <c r="L45" s="3">
         <f t="shared" si="6"/>
         <v>1764</v>
       </c>
@@ -9310,7 +9440,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="8">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -9322,15 +9452,15 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="2">
         <f t="shared" si="7"/>
         <v>42</v>
       </c>
-      <c r="L46" s="4">
+      <c r="L46" s="3">
         <f t="shared" si="6"/>
         <v>1764</v>
       </c>
@@ -9343,7 +9473,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="8">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -9355,15 +9485,15 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="2">
         <f t="shared" si="7"/>
         <v>42</v>
       </c>
-      <c r="L47" s="4">
+      <c r="L47" s="3">
         <f t="shared" si="6"/>
         <v>1764</v>
       </c>
@@ -9376,7 +9506,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="8">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -9388,15 +9518,15 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="2">
         <f t="shared" si="7"/>
         <v>42</v>
       </c>
-      <c r="L48" s="4">
+      <c r="L48" s="3">
         <f t="shared" si="6"/>
         <v>1764</v>
       </c>
@@ -9409,7 +9539,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="8">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -9421,15 +9551,15 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="2">
         <f t="shared" si="7"/>
         <v>42</v>
       </c>
-      <c r="L49" s="4">
+      <c r="L49" s="3">
         <f t="shared" si="6"/>
         <v>1764</v>
       </c>
@@ -9442,7 +9572,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="8">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -9454,15 +9584,15 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="J50" s="3">
+      <c r="J50" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K50" s="2">
         <f t="shared" si="7"/>
         <v>42</v>
       </c>
-      <c r="L50" s="4">
+      <c r="L50" s="3">
         <f t="shared" si="6"/>
         <v>1764</v>
       </c>
@@ -9475,7 +9605,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="8">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -9487,15 +9617,15 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="J51" s="3">
+      <c r="J51" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K51" s="2">
         <f t="shared" si="7"/>
         <v>42</v>
       </c>
-      <c r="L51" s="4">
+      <c r="L51" s="3">
         <f t="shared" si="6"/>
         <v>1764</v>
       </c>
@@ -9508,7 +9638,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="8">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -9520,15 +9650,15 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="2">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="L52" s="4">
+      <c r="L52" s="3">
         <f t="shared" si="6"/>
         <v>1270.08</v>
       </c>
@@ -9541,7 +9671,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="8">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -9553,15 +9683,15 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="J53" s="3">
+      <c r="J53" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="K53" s="3">
+      <c r="K53" s="2">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="L53" s="4">
+      <c r="L53" s="3">
         <f t="shared" si="6"/>
         <v>1270.08</v>
       </c>
@@ -9574,7 +9704,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="8">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -9586,15 +9716,15 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J54" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="2">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="L54" s="4">
+      <c r="L54" s="3">
         <f t="shared" si="6"/>
         <v>1270.08</v>
       </c>
@@ -9607,7 +9737,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="8">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -9619,15 +9749,15 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="J55" s="3">
+      <c r="J55" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="K55" s="3">
+      <c r="K55" s="2">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="L55" s="4">
+      <c r="L55" s="3">
         <f t="shared" si="6"/>
         <v>1270.08</v>
       </c>
@@ -9640,7 +9770,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="8">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -9652,15 +9782,15 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="J56" s="3">
+      <c r="J56" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="K56" s="3">
+      <c r="K56" s="2">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="L56" s="4">
+      <c r="L56" s="3">
         <f t="shared" si="6"/>
         <v>1270.08</v>
       </c>
@@ -9673,7 +9803,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="8">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -9685,15 +9815,15 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="2">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="L57" s="4">
+      <c r="L57" s="3">
         <f t="shared" si="6"/>
         <v>1270.08</v>
       </c>
@@ -9706,7 +9836,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="8">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -9718,15 +9848,15 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="2">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="L58" s="4">
+      <c r="L58" s="3">
         <f t="shared" si="6"/>
         <v>1270.08</v>
       </c>
@@ -9739,7 +9869,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="8">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -9751,15 +9881,15 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="2">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="L59" s="4">
+      <c r="L59" s="3">
         <f t="shared" si="6"/>
         <v>1270.08</v>
       </c>
@@ -9772,7 +9902,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="8">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -9784,15 +9914,15 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="J60" s="3">
+      <c r="J60" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="2">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="L60" s="4">
+      <c r="L60" s="3">
         <f t="shared" si="6"/>
         <v>1270.08</v>
       </c>
@@ -9805,7 +9935,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="8">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -9817,15 +9947,15 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="J61" s="3">
+      <c r="J61" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="K61" s="3">
+      <c r="K61" s="2">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="L61" s="4">
+      <c r="L61" s="3">
         <f t="shared" si="6"/>
         <v>1270.08</v>
       </c>
@@ -9838,7 +9968,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62" s="8">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -9850,15 +9980,15 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="2">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="L62" s="4">
+      <c r="L62" s="3">
         <f t="shared" si="6"/>
         <v>1270.08</v>
       </c>
@@ -9871,7 +10001,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="8">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -9883,15 +10013,15 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="J63" s="3">
+      <c r="J63" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="K63" s="3">
+      <c r="K63" s="2">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="L63" s="4">
+      <c r="L63" s="3">
         <f t="shared" si="6"/>
         <v>1270.08</v>
       </c>
@@ -9904,7 +10034,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C64" s="8">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -9916,15 +10046,15 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="J64" s="3">
+      <c r="J64" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="K64" s="3">
+      <c r="K64" s="2">
         <f t="shared" si="7"/>
         <v>56</v>
       </c>
-      <c r="L64" s="4">
+      <c r="L64" s="3">
         <f t="shared" si="6"/>
         <v>1270.08</v>
       </c>
@@ -9937,7 +10067,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C65" s="9">
+      <c r="C65" s="8">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -9949,15 +10079,15 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="J65" s="3">
+      <c r="J65" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="K65" s="3">
+      <c r="K65" s="2">
         <f t="shared" si="7"/>
         <v>56</v>
       </c>
-      <c r="L65" s="4">
+      <c r="L65" s="3">
         <f t="shared" si="6"/>
         <v>1270.08</v>
       </c>
@@ -9970,7 +10100,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C66" s="9">
+      <c r="C66" s="8">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -9982,15 +10112,15 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J66" s="2">
         <f t="shared" ref="J66:J125" si="8">IF(H66&lt;$R$10,D66-1,D66)</f>
         <v>50</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="2">
         <f t="shared" si="7"/>
         <v>56</v>
       </c>
-      <c r="L66" s="4">
+      <c r="L66" s="3">
         <f t="shared" si="6"/>
         <v>1270.08</v>
       </c>
@@ -10003,7 +10133,7 @@
         <f t="shared" ref="B67:B125" si="9">ROUNDDOWN((($R$4+A67-1)/A67),0)+$U$10</f>
         <v>6</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C67" s="8">
         <f t="shared" ref="C67:C125" si="10">IF($R$13&lt;$R$10,IF(OR(AND(ISODD($R$10),ISODD(B67)),AND(ISEVEN($R$10),ISEVEN(B67))),B67,B67+1),IF(MOD(B67,$R$10)&gt;0,B67+($R$10-MOD(B67,$R$10)),B67))</f>
         <v>7</v>
       </c>
@@ -10015,15 +10145,15 @@
         <f t="shared" ref="H67:H125" si="12">$R$4-(D67-1)*(C67-$U$10)</f>
         <v>2</v>
       </c>
-      <c r="J67" s="3">
+      <c r="J67" s="2">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="K67" s="3">
+      <c r="K67" s="2">
         <f t="shared" ref="K67:K125" si="13">$R$4-(J67-1)*(B67-$U$10)</f>
         <v>56</v>
       </c>
-      <c r="L67" s="4">
+      <c r="L67" s="3">
         <f t="shared" ref="L67:L125" si="14">($R$4/J67)*$R$4</f>
         <v>1270.08</v>
       </c>
@@ -10036,7 +10166,7 @@
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="C68" s="9">
+      <c r="C68" s="8">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
@@ -10048,15 +10178,15 @@
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="J68" s="3">
+      <c r="J68" s="2">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="K68" s="3">
+      <c r="K68" s="2">
         <f t="shared" si="13"/>
         <v>56</v>
       </c>
-      <c r="L68" s="4">
+      <c r="L68" s="3">
         <f t="shared" si="14"/>
         <v>1270.08</v>
       </c>
@@ -10069,7 +10199,7 @@
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C69" s="8">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
@@ -10081,15 +10211,15 @@
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="J69" s="3">
+      <c r="J69" s="2">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="K69" s="3">
+      <c r="K69" s="2">
         <f t="shared" si="13"/>
         <v>56</v>
       </c>
-      <c r="L69" s="4">
+      <c r="L69" s="3">
         <f t="shared" si="14"/>
         <v>1270.08</v>
       </c>
@@ -10102,7 +10232,7 @@
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="C70" s="9">
+      <c r="C70" s="8">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
@@ -10114,15 +10244,15 @@
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="J70" s="3">
+      <c r="J70" s="2">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="K70" s="3">
+      <c r="K70" s="2">
         <f t="shared" si="13"/>
         <v>56</v>
       </c>
-      <c r="L70" s="4">
+      <c r="L70" s="3">
         <f t="shared" si="14"/>
         <v>1270.08</v>
       </c>
@@ -10135,7 +10265,7 @@
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="C71" s="9">
+      <c r="C71" s="8">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
@@ -10147,15 +10277,15 @@
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="J71" s="3">
+      <c r="J71" s="2">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="K71" s="3">
+      <c r="K71" s="2">
         <f t="shared" si="13"/>
         <v>56</v>
       </c>
-      <c r="L71" s="4">
+      <c r="L71" s="3">
         <f t="shared" si="14"/>
         <v>1270.08</v>
       </c>
@@ -10168,7 +10298,7 @@
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C72" s="8">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
@@ -10180,15 +10310,15 @@
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="2">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="2">
         <f t="shared" si="13"/>
         <v>56</v>
       </c>
-      <c r="L72" s="4">
+      <c r="L72" s="3">
         <f t="shared" si="14"/>
         <v>1270.08</v>
       </c>
@@ -10201,7 +10331,7 @@
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="C73" s="9">
+      <c r="C73" s="8">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
@@ -10213,15 +10343,15 @@
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="J73" s="3">
+      <c r="J73" s="2">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="K73" s="3">
+      <c r="K73" s="2">
         <f t="shared" si="13"/>
         <v>56</v>
       </c>
-      <c r="L73" s="4">
+      <c r="L73" s="3">
         <f t="shared" si="14"/>
         <v>1270.08</v>
       </c>
@@ -10234,7 +10364,7 @@
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C74" s="8">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
@@ -10246,15 +10376,15 @@
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="J74" s="3">
+      <c r="J74" s="2">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="K74" s="3">
+      <c r="K74" s="2">
         <f t="shared" si="13"/>
         <v>56</v>
       </c>
-      <c r="L74" s="4">
+      <c r="L74" s="3">
         <f t="shared" si="14"/>
         <v>1270.08</v>
       </c>
@@ -10267,7 +10397,7 @@
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C75" s="8">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
@@ -10279,15 +10409,15 @@
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="J75" s="3">
+      <c r="J75" s="2">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="K75" s="3">
+      <c r="K75" s="2">
         <f t="shared" si="13"/>
         <v>56</v>
       </c>
-      <c r="L75" s="4">
+      <c r="L75" s="3">
         <f t="shared" si="14"/>
         <v>1270.08</v>
       </c>
@@ -10300,7 +10430,7 @@
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="C76" s="9">
+      <c r="C76" s="8">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
@@ -10312,15 +10442,15 @@
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="J76" s="3">
+      <c r="J76" s="2">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="2">
         <f t="shared" si="13"/>
         <v>56</v>
       </c>
-      <c r="L76" s="4">
+      <c r="L76" s="3">
         <f t="shared" si="14"/>
         <v>1270.08</v>
       </c>
@@ -10333,7 +10463,7 @@
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C77" s="8">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
@@ -10345,15 +10475,15 @@
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="J77" s="3">
+      <c r="J77" s="2">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="K77" s="3">
+      <c r="K77" s="2">
         <f t="shared" si="13"/>
         <v>56</v>
       </c>
-      <c r="L77" s="4">
+      <c r="L77" s="3">
         <f t="shared" si="14"/>
         <v>1270.08</v>
       </c>
@@ -10366,7 +10496,7 @@
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C78" s="8">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
@@ -10378,15 +10508,15 @@
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="J78" s="3">
+      <c r="J78" s="2">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="K78" s="3">
+      <c r="K78" s="2">
         <f t="shared" si="13"/>
         <v>56</v>
       </c>
-      <c r="L78" s="4">
+      <c r="L78" s="3">
         <f t="shared" si="14"/>
         <v>1270.08</v>
       </c>
@@ -10399,7 +10529,7 @@
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="C79" s="9">
+      <c r="C79" s="8">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
@@ -10411,15 +10541,15 @@
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="J79" s="3">
+      <c r="J79" s="2">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="K79" s="3">
+      <c r="K79" s="2">
         <f t="shared" si="13"/>
         <v>56</v>
       </c>
-      <c r="L79" s="4">
+      <c r="L79" s="3">
         <f t="shared" si="14"/>
         <v>1270.08</v>
       </c>
@@ -10432,7 +10562,7 @@
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C80" s="8">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
@@ -10444,15 +10574,15 @@
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="J80" s="3">
+      <c r="J80" s="2">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="K80" s="3">
+      <c r="K80" s="2">
         <f t="shared" si="13"/>
         <v>56</v>
       </c>
-      <c r="L80" s="4">
+      <c r="L80" s="3">
         <f t="shared" si="14"/>
         <v>1270.08</v>
       </c>
@@ -10465,7 +10595,7 @@
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="C81" s="9">
+      <c r="C81" s="8">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
@@ -10477,15 +10607,15 @@
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="J81" s="3">
+      <c r="J81" s="2">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81" s="2">
         <f t="shared" si="13"/>
         <v>56</v>
       </c>
-      <c r="L81" s="4">
+      <c r="L81" s="3">
         <f t="shared" si="14"/>
         <v>1270.08</v>
       </c>
@@ -10498,7 +10628,7 @@
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="C82" s="9">
+      <c r="C82" s="8">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
@@ -10510,15 +10640,15 @@
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="J82" s="3">
+      <c r="J82" s="2">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="K82" s="3">
+      <c r="K82" s="2">
         <f t="shared" si="13"/>
         <v>56</v>
       </c>
-      <c r="L82" s="4">
+      <c r="L82" s="3">
         <f t="shared" si="14"/>
         <v>1270.08</v>
       </c>
@@ -10531,7 +10661,7 @@
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="C83" s="9">
+      <c r="C83" s="8">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
@@ -10543,15 +10673,15 @@
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="2">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="2">
         <f t="shared" si="13"/>
         <v>56</v>
       </c>
-      <c r="L83" s="4">
+      <c r="L83" s="3">
         <f t="shared" si="14"/>
         <v>1270.08</v>
       </c>
@@ -10564,7 +10694,7 @@
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="C84" s="9">
+      <c r="C84" s="8">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
@@ -10576,15 +10706,15 @@
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="J84" s="3">
+      <c r="J84" s="2">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="K84" s="3">
+      <c r="K84" s="2">
         <f t="shared" si="13"/>
         <v>56</v>
       </c>
-      <c r="L84" s="4">
+      <c r="L84" s="3">
         <f t="shared" si="14"/>
         <v>1270.08</v>
       </c>
@@ -10597,7 +10727,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C85" s="9">
+      <c r="C85" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -10609,15 +10739,15 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J85" s="3">
+      <c r="J85" s="2">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="K85" s="3">
+      <c r="K85" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L85" s="4">
+      <c r="L85" s="3">
         <f t="shared" si="14"/>
         <v>756</v>
       </c>
@@ -10630,7 +10760,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C86" s="9">
+      <c r="C86" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -10642,15 +10772,15 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J86" s="3">
+      <c r="J86" s="2">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="K86" s="3">
+      <c r="K86" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L86" s="4">
+      <c r="L86" s="3">
         <f t="shared" si="14"/>
         <v>756</v>
       </c>
@@ -10663,7 +10793,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C87" s="9">
+      <c r="C87" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -10675,15 +10805,15 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J87" s="3">
+      <c r="J87" s="2">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="K87" s="3">
+      <c r="K87" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L87" s="4">
+      <c r="L87" s="3">
         <f t="shared" si="14"/>
         <v>756</v>
       </c>
@@ -10696,7 +10826,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C88" s="9">
+      <c r="C88" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -10708,15 +10838,15 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J88" s="3">
+      <c r="J88" s="2">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="K88" s="3">
+      <c r="K88" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L88" s="4">
+      <c r="L88" s="3">
         <f t="shared" si="14"/>
         <v>756</v>
       </c>
@@ -10729,7 +10859,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C89" s="9">
+      <c r="C89" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -10741,15 +10871,15 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="2">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L89" s="4">
+      <c r="L89" s="3">
         <f t="shared" si="14"/>
         <v>756</v>
       </c>
@@ -10762,7 +10892,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C90" s="9">
+      <c r="C90" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -10774,15 +10904,15 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J90" s="3">
+      <c r="J90" s="2">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="K90" s="3">
+      <c r="K90" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L90" s="4">
+      <c r="L90" s="3">
         <f t="shared" si="14"/>
         <v>756</v>
       </c>
@@ -10795,7 +10925,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C91" s="9">
+      <c r="C91" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -10807,15 +10937,15 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="2">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L91" s="4">
+      <c r="L91" s="3">
         <f t="shared" si="14"/>
         <v>756</v>
       </c>
@@ -10828,7 +10958,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C92" s="9">
+      <c r="C92" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -10840,15 +10970,15 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J92" s="3">
+      <c r="J92" s="2">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="K92" s="3">
+      <c r="K92" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L92" s="4">
+      <c r="L92" s="3">
         <f t="shared" si="14"/>
         <v>756</v>
       </c>
@@ -10861,7 +10991,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C93" s="9">
+      <c r="C93" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -10873,15 +11003,15 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J93" s="3">
+      <c r="J93" s="2">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="K93" s="3">
+      <c r="K93" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L93" s="4">
+      <c r="L93" s="3">
         <f t="shared" si="14"/>
         <v>756</v>
       </c>
@@ -10894,7 +11024,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C94" s="9">
+      <c r="C94" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -10906,15 +11036,15 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="2">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L94" s="4">
+      <c r="L94" s="3">
         <f t="shared" si="14"/>
         <v>756</v>
       </c>
@@ -10927,7 +11057,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C95" s="9">
+      <c r="C95" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -10939,15 +11069,15 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J95" s="3">
+      <c r="J95" s="2">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="K95" s="3">
+      <c r="K95" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L95" s="4">
+      <c r="L95" s="3">
         <f t="shared" si="14"/>
         <v>756</v>
       </c>
@@ -10960,7 +11090,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C96" s="9">
+      <c r="C96" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -10972,15 +11102,15 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J96" s="3">
+      <c r="J96" s="2">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="K96" s="3">
+      <c r="K96" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L96" s="4">
+      <c r="L96" s="3">
         <f t="shared" si="14"/>
         <v>756</v>
       </c>
@@ -10993,7 +11123,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C97" s="9">
+      <c r="C97" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -11005,15 +11135,15 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J97" s="3">
+      <c r="J97" s="2">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="K97" s="3">
+      <c r="K97" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L97" s="4">
+      <c r="L97" s="3">
         <f t="shared" si="14"/>
         <v>756</v>
       </c>
@@ -11026,7 +11156,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C98" s="9">
+      <c r="C98" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -11038,15 +11168,15 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J98" s="3">
+      <c r="J98" s="2">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="K98" s="3">
+      <c r="K98" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L98" s="4">
+      <c r="L98" s="3">
         <f t="shared" si="14"/>
         <v>756</v>
       </c>
@@ -11059,7 +11189,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C99" s="9">
+      <c r="C99" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -11071,15 +11201,15 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J99" s="3">
+      <c r="J99" s="2">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="K99" s="3">
+      <c r="K99" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L99" s="4">
+      <c r="L99" s="3">
         <f t="shared" si="14"/>
         <v>756</v>
       </c>
@@ -11092,7 +11222,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C100" s="9">
+      <c r="C100" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -11104,15 +11234,15 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="2">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L100" s="4">
+      <c r="L100" s="3">
         <f t="shared" si="14"/>
         <v>756</v>
       </c>
@@ -11125,7 +11255,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C101" s="9">
+      <c r="C101" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -11137,15 +11267,15 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="2">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="K101" s="3">
+      <c r="K101" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L101" s="4">
+      <c r="L101" s="3">
         <f t="shared" si="14"/>
         <v>756</v>
       </c>
@@ -11158,7 +11288,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C102" s="9">
+      <c r="C102" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -11170,15 +11300,15 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="2">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L102" s="4">
+      <c r="L102" s="3">
         <f t="shared" si="14"/>
         <v>756</v>
       </c>
@@ -11191,7 +11321,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C103" s="9">
+      <c r="C103" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -11203,15 +11333,15 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J103" s="3">
+      <c r="J103" s="2">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="K103" s="3">
+      <c r="K103" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L103" s="4">
+      <c r="L103" s="3">
         <f t="shared" si="14"/>
         <v>756</v>
       </c>
@@ -11224,7 +11354,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C104" s="9">
+      <c r="C104" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -11236,15 +11366,15 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J104" s="3">
+      <c r="J104" s="2">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="K104" s="3">
+      <c r="K104" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L104" s="4">
+      <c r="L104" s="3">
         <f t="shared" si="14"/>
         <v>756</v>
       </c>
@@ -11257,7 +11387,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C105" s="9">
+      <c r="C105" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -11269,15 +11399,15 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J105" s="3">
+      <c r="J105" s="2">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="K105" s="3">
+      <c r="K105" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L105" s="4">
+      <c r="L105" s="3">
         <f t="shared" si="14"/>
         <v>756</v>
       </c>
@@ -11290,7 +11420,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C106" s="9">
+      <c r="C106" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -11302,15 +11432,15 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J106" s="3">
+      <c r="J106" s="2">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="K106" s="3">
+      <c r="K106" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L106" s="4">
+      <c r="L106" s="3">
         <f t="shared" si="14"/>
         <v>756</v>
       </c>
@@ -11323,7 +11453,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C107" s="9">
+      <c r="C107" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -11335,15 +11465,15 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J107" s="3">
+      <c r="J107" s="2">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="K107" s="3">
+      <c r="K107" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L107" s="4">
+      <c r="L107" s="3">
         <f t="shared" si="14"/>
         <v>756</v>
       </c>
@@ -11356,7 +11486,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C108" s="9">
+      <c r="C108" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -11368,15 +11498,15 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J108" s="3">
+      <c r="J108" s="2">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="K108" s="3">
+      <c r="K108" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L108" s="4">
+      <c r="L108" s="3">
         <f t="shared" si="14"/>
         <v>756</v>
       </c>
@@ -11389,7 +11519,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C109" s="9">
+      <c r="C109" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -11401,15 +11531,15 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J109" s="3">
+      <c r="J109" s="2">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="K109" s="3">
+      <c r="K109" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L109" s="4">
+      <c r="L109" s="3">
         <f t="shared" si="14"/>
         <v>756</v>
       </c>
@@ -11422,7 +11552,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C110" s="9">
+      <c r="C110" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -11434,15 +11564,15 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J110" s="3">
+      <c r="J110" s="2">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="K110" s="3">
+      <c r="K110" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L110" s="4">
+      <c r="L110" s="3">
         <f t="shared" si="14"/>
         <v>756</v>
       </c>
@@ -11455,7 +11585,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C111" s="9">
+      <c r="C111" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -11467,15 +11597,15 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J111" s="3">
+      <c r="J111" s="2">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="K111" s="3">
+      <c r="K111" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L111" s="4">
+      <c r="L111" s="3">
         <f t="shared" si="14"/>
         <v>756</v>
       </c>
@@ -11488,7 +11618,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C112" s="9">
+      <c r="C112" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -11500,15 +11630,15 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J112" s="3">
+      <c r="J112" s="2">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="K112" s="3">
+      <c r="K112" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L112" s="4">
+      <c r="L112" s="3">
         <f t="shared" si="14"/>
         <v>756</v>
       </c>
@@ -11521,7 +11651,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C113" s="9">
+      <c r="C113" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -11533,15 +11663,15 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J113" s="3">
+      <c r="J113" s="2">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="K113" s="3">
+      <c r="K113" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L113" s="4">
+      <c r="L113" s="3">
         <f t="shared" si="14"/>
         <v>756</v>
       </c>
@@ -11554,7 +11684,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C114" s="9">
+      <c r="C114" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -11566,15 +11696,15 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J114" s="3">
+      <c r="J114" s="2">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="K114" s="3">
+      <c r="K114" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L114" s="4">
+      <c r="L114" s="3">
         <f t="shared" si="14"/>
         <v>756</v>
       </c>
@@ -11587,7 +11717,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C115" s="9">
+      <c r="C115" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -11599,15 +11729,15 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J115" s="3">
+      <c r="J115" s="2">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="K115" s="3">
+      <c r="K115" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L115" s="4">
+      <c r="L115" s="3">
         <f t="shared" si="14"/>
         <v>756</v>
       </c>
@@ -11620,7 +11750,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C116" s="9">
+      <c r="C116" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -11632,15 +11762,15 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J116" s="3">
+      <c r="J116" s="2">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="K116" s="3">
+      <c r="K116" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L116" s="4">
+      <c r="L116" s="3">
         <f t="shared" si="14"/>
         <v>756</v>
       </c>
@@ -11653,7 +11783,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C117" s="9">
+      <c r="C117" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -11665,15 +11795,15 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J117" s="3">
+      <c r="J117" s="2">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="K117" s="3">
+      <c r="K117" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L117" s="4">
+      <c r="L117" s="3">
         <f t="shared" si="14"/>
         <v>756</v>
       </c>
@@ -11686,7 +11816,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C118" s="9">
+      <c r="C118" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -11698,15 +11828,15 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J118" s="3">
+      <c r="J118" s="2">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="K118" s="3">
+      <c r="K118" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L118" s="4">
+      <c r="L118" s="3">
         <f t="shared" si="14"/>
         <v>756</v>
       </c>
@@ -11719,7 +11849,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C119" s="9">
+      <c r="C119" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -11731,15 +11861,15 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J119" s="3">
+      <c r="J119" s="2">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="K119" s="3">
+      <c r="K119" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L119" s="4">
+      <c r="L119" s="3">
         <f t="shared" si="14"/>
         <v>756</v>
       </c>
@@ -11752,7 +11882,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C120" s="9">
+      <c r="C120" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -11764,15 +11894,15 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J120" s="3">
+      <c r="J120" s="2">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="K120" s="3">
+      <c r="K120" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L120" s="4">
+      <c r="L120" s="3">
         <f t="shared" si="14"/>
         <v>756</v>
       </c>
@@ -11785,7 +11915,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C121" s="9">
+      <c r="C121" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -11797,15 +11927,15 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J121" s="3">
+      <c r="J121" s="2">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="K121" s="3">
+      <c r="K121" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L121" s="4">
+      <c r="L121" s="3">
         <f t="shared" si="14"/>
         <v>756</v>
       </c>
@@ -11818,7 +11948,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C122" s="9">
+      <c r="C122" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -11830,15 +11960,15 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J122" s="3">
+      <c r="J122" s="2">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="K122" s="3">
+      <c r="K122" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L122" s="4">
+      <c r="L122" s="3">
         <f t="shared" si="14"/>
         <v>756</v>
       </c>
@@ -11851,7 +11981,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C123" s="9">
+      <c r="C123" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -11863,15 +11993,15 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J123" s="3">
+      <c r="J123" s="2">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="K123" s="3">
+      <c r="K123" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L123" s="4">
+      <c r="L123" s="3">
         <f t="shared" si="14"/>
         <v>756</v>
       </c>
@@ -11884,7 +12014,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C124" s="9">
+      <c r="C124" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -11896,15 +12026,15 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J124" s="3">
+      <c r="J124" s="2">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="K124" s="3">
+      <c r="K124" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L124" s="4">
+      <c r="L124" s="3">
         <f t="shared" si="14"/>
         <v>756</v>
       </c>
@@ -11917,7 +12047,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C125" s="9">
+      <c r="C125" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -11929,15 +12059,15 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J125" s="3">
+      <c r="J125" s="2">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="K125" s="3">
+      <c r="K125" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L125" s="4">
+      <c r="L125" s="3">
         <f t="shared" si="14"/>
         <v>756</v>
       </c>
